--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl17-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl17-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ccl17</t>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.244729</v>
+        <v>0.134031</v>
       </c>
       <c r="H2">
-        <v>0.734187</v>
+        <v>0.402093</v>
       </c>
       <c r="I2">
-        <v>0.1979038852600776</v>
+        <v>0.1466544264074474</v>
       </c>
       <c r="J2">
-        <v>0.1979038852600776</v>
+        <v>0.1466544264074474</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06412389257999999</v>
+        <v>0.03511880261999999</v>
       </c>
       <c r="R2">
-        <v>0.57711503322</v>
+        <v>0.31606922358</v>
       </c>
       <c r="S2">
-        <v>0.1979038852600776</v>
+        <v>0.1466544264074474</v>
       </c>
       <c r="T2">
-        <v>0.1979038852600776</v>
+        <v>0.1466544264074474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +581,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.134031</v>
+        <v>0.080957</v>
       </c>
       <c r="H3">
-        <v>0.402093</v>
+        <v>0.242871</v>
       </c>
       <c r="I3">
-        <v>0.1083862380236648</v>
+        <v>0.08858176391034703</v>
       </c>
       <c r="J3">
-        <v>0.1083862380236648</v>
+        <v>0.08858176391034703</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.03511880261999999</v>
+        <v>0.02121235314</v>
       </c>
       <c r="R3">
-        <v>0.31606922358</v>
+        <v>0.19091117826</v>
       </c>
       <c r="S3">
-        <v>0.1083862380236648</v>
+        <v>0.08858176391034703</v>
       </c>
       <c r="T3">
-        <v>0.1083862380236648</v>
+        <v>0.08858176391034703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +643,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.080957</v>
+        <v>0.6989360000000001</v>
       </c>
       <c r="H4">
-        <v>0.242871</v>
+        <v>2.096808</v>
       </c>
       <c r="I4">
-        <v>0.06546712828884235</v>
+        <v>0.7647638096822056</v>
       </c>
       <c r="J4">
-        <v>0.06546712828884235</v>
+        <v>0.7647638096822056</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,140 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.02121235314</v>
+        <v>0.18313521072</v>
       </c>
       <c r="R4">
-        <v>0.19091117826</v>
+        <v>1.64821689648</v>
       </c>
       <c r="S4">
-        <v>0.06546712828884235</v>
+        <v>0.7647638096822056</v>
       </c>
       <c r="T4">
-        <v>0.06546712828884235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.2996366666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.89891</v>
-      </c>
-      <c r="I5">
-        <v>0.2423058178626649</v>
-      </c>
-      <c r="J5">
-        <v>0.2423058178626649</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.26202</v>
-      </c>
-      <c r="N5">
-        <v>0.78606</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.0785107994</v>
-      </c>
-      <c r="R5">
-        <v>0.7065971945999999</v>
-      </c>
-      <c r="S5">
-        <v>0.2423058178626649</v>
-      </c>
-      <c r="T5">
-        <v>0.2423058178626649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.4772516666666666</v>
-      </c>
-      <c r="H6">
-        <v>1.431755</v>
-      </c>
-      <c r="I6">
-        <v>0.3859369305647504</v>
-      </c>
-      <c r="J6">
-        <v>0.3859369305647504</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.26202</v>
-      </c>
-      <c r="N6">
-        <v>0.78606</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.1250494817</v>
-      </c>
-      <c r="R6">
-        <v>1.1254453353</v>
-      </c>
-      <c r="S6">
-        <v>0.3859369305647504</v>
-      </c>
-      <c r="T6">
-        <v>0.3859369305647504</v>
+        <v>0.7647638096822056</v>
       </c>
     </row>
   </sheetData>
